--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3485077.012230715</v>
+        <v>3482824.932519505</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888084.313078334</v>
+        <v>7888084.313078333</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230601</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>357.5172482913119</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>79.40252205331835</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.4503987265494</v>
       </c>
       <c r="F5" t="n">
-        <v>115.1223102210456</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>106.5867442799596</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>126.5388824951709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939313</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>85.47654389282634</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695798</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581196</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833946</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428303</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>28.75188085812011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576128</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788177681</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>926.1215352571935</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672847</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.678443125553</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.715926185141</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>937.4502275783909</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E5" t="n">
-        <v>937.4502275783909</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450755</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189675</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189675</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4650,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.2242361621301</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>880.2242361621301</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621301</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621301</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621301</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1840.954604762406</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1586.270116556519</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.852946519558</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,46 +5282,46 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797194</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797194</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797194</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452597</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718121</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,61 +5410,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429806</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429806</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,10 +5473,10 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
         <v>695.5020655703109</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468476</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962607</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.80077839983</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>194.80077839983</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>194.80077839983</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192275</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637309</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684178</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121657</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,22 +6069,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6555,13 +6555,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.8166630479718</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.8166630479718</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637302</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684174</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745235</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589091</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310022</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310022</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310022</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.686657667657</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1207.269487630696</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>979.2799367326789</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.4873575891488</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,10 +7725,10 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409392939</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194083</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194406</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679314.7119745261</v>
+        <v>679314.7119745259</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679314.7119745259</v>
+        <v>679314.7119745261</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132559</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26366,19 +26366,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>5.065408334613161e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1446214736337e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685489</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685507</v>
@@ -26439,10 +26439,10 @@
         <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26451,10 +26451,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.7520768552</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26479,10 +26479,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26503,7 +26503,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770618.8360127296</v>
+        <v>-770618.83601273</v>
       </c>
       <c r="C6" t="n">
-        <v>558125.9097148625</v>
+        <v>558125.9097148629</v>
       </c>
       <c r="D6" t="n">
-        <v>558125.9097148632</v>
+        <v>558125.9097148627</v>
       </c>
       <c r="E6" t="n">
-        <v>305858.8610051377</v>
+        <v>305824.1230797022</v>
       </c>
       <c r="F6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870573</v>
       </c>
       <c r="G6" t="n">
-        <v>631271.3228124935</v>
+        <v>631236.5848870572</v>
       </c>
       <c r="H6" t="n">
-        <v>631271.3228124934</v>
+        <v>631236.5848870573</v>
       </c>
       <c r="I6" t="n">
-        <v>631271.3228124937</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="J6" t="n">
-        <v>413740.1204152156</v>
+        <v>413705.3824897796</v>
       </c>
       <c r="K6" t="n">
-        <v>631271.3228124933</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="L6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870577</v>
       </c>
       <c r="M6" t="n">
-        <v>546216.2948769815</v>
+        <v>546181.5569515454</v>
       </c>
       <c r="N6" t="n">
-        <v>631271.3228124934</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="O6" t="n">
-        <v>631271.3228124925</v>
+        <v>631236.5848870575</v>
       </c>
       <c r="P6" t="n">
-        <v>631271.3228124932</v>
+        <v>631236.5848870575</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.930776842042126e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.234920625768702e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.930776842042126e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,20 +26960,20 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.66149888591221e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.930776842042126e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.234920625768702e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186513</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>12.21385238715715</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>87.84429904530948</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>254.4799713457124</v>
       </c>
       <c r="F5" t="n">
-        <v>291.7537355206659</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02872873825275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>222.7020862222421</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.5552485790759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.7352943127866</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.036973385656141e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.479508333377511e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.016569746781082e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.016569746781083e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075168</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.385831806051</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963265</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990626</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704892</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071781</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704925</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630724</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164523</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998983</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770443</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.922057956159</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238448</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561622</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
